--- a/TypeCobol/Documentation/Studies/Symbols and User defined words.xlsx
+++ b/TypeCobol/Documentation/Studies/Symbols and User defined words.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Laurent\OneDrive\Dev\Github\TypeCobol\TypeCobol\Documentation\Studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Source\Repos\TypeCobol\TypeCobol\Documentation\Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12240" tabRatio="607" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12240" tabRatio="607" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="Scope of name" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">References!$G$1:$G$81</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="541">
   <si>
     <t>Family</t>
   </si>
@@ -1509,12 +1510,518 @@
 &gt;&gt;identifierOrFileName
 &gt;&gt;identifierOrClassName</t>
   </si>
+  <si>
+    <t>ProgramEntry</t>
+  </si>
+  <si>
+    <t>IntrinsicFunctionName</t>
+  </si>
+  <si>
+    <t>DataTypeName</t>
+  </si>
+  <si>
+    <t>REFERENCE : structure of a Cobol compilation unit</t>
+  </si>
+  <si>
+    <t>ClassIdentification</t>
+  </si>
+  <si>
+    <t>EnvironmentDivisionHeader</t>
+  </si>
+  <si>
+    <t>configurationSection?</t>
+  </si>
+  <si>
+    <t>(FactoryIdentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(DataDivisionHeader </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> workingStorageSection?</t>
+  </si>
+  <si>
+    <t>)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ProcedureDivisionHeader </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> methodDefinition*</t>
+  </si>
+  <si>
+    <t>FactoryEnd)?</t>
+  </si>
+  <si>
+    <t>(ObjectIdentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">)?             </t>
+  </si>
+  <si>
+    <t>ObjectEnd)?</t>
+  </si>
+  <si>
+    <t>ClassEnd?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodDefinition: </t>
+  </si>
+  <si>
+    <t>MethodIdentification</t>
+  </si>
+  <si>
+    <t>(EnvironmentDivisionHeader</t>
+  </si>
+  <si>
+    <t>inputOutputSection?</t>
+  </si>
+  <si>
+    <t>fileSection?</t>
+  </si>
+  <si>
+    <t>workingStorageSection?</t>
+  </si>
+  <si>
+    <t>localStorageSection?</t>
+  </si>
+  <si>
+    <t>linkageSection?</t>
+  </si>
+  <si>
+    <t>declaratives?</t>
+  </si>
+  <si>
+    <t>section*</t>
+  </si>
+  <si>
+    <t>MethodEnd;</t>
+  </si>
+  <si>
+    <t>cobolProgram:</t>
+  </si>
+  <si>
+    <t>ProgramIdentification</t>
+  </si>
+  <si>
+    <t>environmentDivision?</t>
+  </si>
+  <si>
+    <t>dataDivision?</t>
+  </si>
+  <si>
+    <t>procedureDivision?</t>
+  </si>
+  <si>
+    <t>nestedProgram=cobolProgram*</t>
+  </si>
+  <si>
+    <t>ProgramEnd?;</t>
+  </si>
+  <si>
+    <t>&lt;== only in outermost program</t>
+  </si>
+  <si>
+    <t>Defined in</t>
+  </si>
+  <si>
+    <t>Referenced in</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>dataDescriptionEntry
+functionDataParameter</t>
+  </si>
+  <si>
+    <t>Defining scopes</t>
+  </si>
+  <si>
+    <t>Referencing scopes</t>
+  </si>
+  <si>
+    <t>SpecialNamesParagraph</t>
+  </si>
+  <si>
+    <t>Defining CodeElements</t>
+  </si>
+  <si>
+    <t>Program (not nested)
+Class</t>
+  </si>
+  <si>
+    <t>codeSetClause
+collatingSequence
+programCollatingSequenceClause
+symbolicCharactersClause</t>
+  </si>
+  <si>
+    <t>FileDescriptionEntry
+MergeStatement
+SortStatement
+ObjectComputerParagraph
+SpecialNamesParagraph</t>
+  </si>
+  <si>
+    <t>Referencing  code elements</t>
+  </si>
+  <si>
+    <t>Target Object</t>
+  </si>
+  <si>
+    <t>CollatingSequence</t>
+  </si>
+  <si>
+    <t>classIdentification
+repositoryClassDeclaration (def or ref)</t>
+  </si>
+  <si>
+    <t>ClassIdentification
+RepositoryParagraph</t>
+  </si>
+  <si>
+    <t>Program
+Class</t>
+  </si>
+  <si>
+    <t>See p123 : Identifying and referencing a class</t>
+  </si>
+  <si>
+    <t>repositoryClassDeclaration (def or ref)</t>
+  </si>
+  <si>
+    <t>RepositoryParagraph</t>
+  </si>
+  <si>
+    <t>ClassNode
+ExternalClassDescription</t>
+  </si>
+  <si>
+    <t>UserDefinedCollatingSequence</t>
+  </si>
+  <si>
+    <t>EvaluateStatement
+IfStatement
+PerformStatement
+SearchStatement</t>
+  </si>
+  <si>
+    <t>dataConditionEntry
+functionConditionParameter</t>
+  </si>
+  <si>
+    <t>classIdentification (inherits from)
+classEnd
+usageClause (object reference)
+repositoryClassDeclaration (def or ref)
+[[dataNameReferenceOrConditionNameReferenceOrConditionForUPSISwitchNameReferenceOrClassNameReference]]=&gt;classNameOrObjectReferenceVariable</t>
+  </si>
+  <si>
+    <t>ClassIdentification
+ClassEnd
+DataDescriptionEntry / ParametersDescriptionEntry / FunctionCallResultDescriptionEntry 
+RepositoryParagraph
+InvokeStatement</t>
+  </si>
+  <si>
+    <t>Program
+Function
+Class
+Factory
+Object
+Method</t>
+  </si>
+  <si>
+    <t>Program
+Function
+Class
+Method</t>
+  </si>
+  <si>
+    <t>[[conditionNameReferenceOrConditionForUPSISwitchNameReference]]=&gt;conditionNameConditionOrSwitchStatusCondition=&gt;conditionalExpression/setStatementForConditions
+[[dataNameReferenceOrConditionNameReferenceOrConditionForUPSISwitchNameReference
+...OrIndexNameReference
+...OrFileNameReference
+...OrClassNameReference]]=&gt;identifier/indentifierOrFileName/identifierOrIndexName/identifierOrClassName</t>
+  </si>
+  <si>
+    <t>DataConditionEntry
+ParameterDescriptionEntry</t>
+  </si>
+  <si>
+    <t>Tuple&lt;ExternalName, UPSISwitchStatus&gt;</t>
+  </si>
+  <si>
+    <t>idem above ConditionName</t>
+  </si>
+  <si>
+    <t>dataDescriptionEntry
+dataRenamesEntry
+functionDataParameter</t>
+  </si>
+  <si>
+    <t>DataDescriptionEntry
+ParameterDescriptionEntry</t>
+  </si>
+  <si>
+    <t>Tuple&lt;StorageAreaNode,ConditionValueNode&gt;</t>
+  </si>
+  <si>
+    <t>StorageAreaNode</t>
+  </si>
+  <si>
+    <t>dataNameReference
+intrinsicDataNameReference
+...OrFileNameReference
+...OrIndexNameReference
+...OrFileNameReferenceOrMnemonicForUPSISwitchNameReference
+...OrConditionNameReferenceOrConditionForUPSISwitchNameReference
+..OrConditionNameReferenceOrConditionForUPSISwitchNameReferenceOrIndexNameReference
+...OrFileNameReference
+...OrClassNameReference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qualifiedDataName
+otherStorageAreaReference
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.. Many variables and sotrage areas ...</t>
+    </r>
+  </si>
+  <si>
+    <t>DataTypeDescriptionEntry</t>
+  </si>
+  <si>
+    <t>DataTypeNode</t>
+  </si>
+  <si>
+    <t>DataDescriptionEntry
+(+ Special Register + FunctionCallResult)
+DataRedefinesEntry
+DataRenamesEntry
+ParameterDescriptionEntry</t>
+  </si>
+  <si>
+    <t>DataDescriptionEntry
+(+ Special Register + FunctionCallResult)
+ParameterDescriptionEntry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EvaluateStatement
+IfStatement
+PerformStatement
+SearchStatement
+SetStatement (for conditions)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Many statements or expressions</t>
+    </r>
+  </si>
+  <si>
+    <t>IndexRegister ?</t>
+  </si>
+  <si>
+    <t>indexStorageArea
+dataNameReferenceOrIndexNameReference=&gt;integerVariableOrIndex2=&gt;subscript=&gt;identifier
+dataNameReferenceOrConditionNameReferenceOrConditionForUPSISwitchNameReferenceOrIndexNameReference=&gt;identifierOrIndexName</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SetStatement (for indexes)
+SetStatement (for table handling)
+PerformStatement (loop variable)
+SearchStatement (serial varying)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.. Many variables and storage areas (subscript) …
+relationCondition
+signCondition</t>
+    </r>
+  </si>
+  <si>
+    <t>FileControlEntry</t>
+  </si>
+  <si>
+    <t>FileControlNode</t>
+  </si>
+  <si>
+    <t>Program
+Method</t>
+  </si>
+  <si>
+    <t>rerunClause
+sameAreaClause
+multipleFileTapeClause
+applyWriteOnlyClause
+fileDescriptionEntry
+useStatementForExceptionDeclarative
+closeFileDirective
+deleteStatement
+mergeStatement
+openStatement
+readStatement
+returnStatement
+sortStatement
+startStatement
+...OrFileNameReference=&gt;rerunClause/qualifiedDataName/qualifiedConditionName/sharedVariableOrFileName=&gt;CallStatement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IoControlEntry
+FileDescriptionEntry
+CloseStatement
+DeleteStatement
+MergeStatement
+OpenStatement
+ReadStatement
+ReturnStatement
+SortStatement
+StartStatement
+UseAfterIOExceptionStatement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.. Many variables and storage areas (subscript) …</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CallStatement (file parameter)</t>
+    </r>
+  </si>
+  <si>
+    <t>functionDeclarationHeader</t>
+  </si>
+  <si>
+    <t>FunctionDeclarationHeader</t>
+  </si>
+  <si>
+    <t>FunctionNode</t>
+  </si>
+  <si>
+    <t>userDefinedFunctionCall</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>any identifier</t>
+  </si>
+  <si>
+    <t>MethodNode</t>
+  </si>
+  <si>
+    <t>Factory
+Object</t>
+  </si>
+  <si>
+    <t>methodEnd
+invokeStatement</t>
+  </si>
+  <si>
+    <t>MethodEnd
+InvokeStatement</t>
+  </si>
+  <si>
+    <t>Program
+Function
+Method</t>
+  </si>
+  <si>
+    <t>acceptStatement
+displayStatement
+writeStatement</t>
+  </si>
+  <si>
+    <t>AcceptStatement
+DisplayStatement
+WriteStatement</t>
+  </si>
+  <si>
+    <t>SetStatement (for switches)</t>
+  </si>
+  <si>
+    <t>ExternalName</t>
+  </si>
+  <si>
+    <t>ParagraphHeader</t>
+  </si>
+  <si>
+    <t>PargraphNode</t>
+  </si>
+  <si>
+    <t>alterStatement
+gotoStatement
+mergeStatement
+performStatement
+sortStatement
+useStatement
+xmlParseStatement</t>
+  </si>
+  <si>
+    <t>alterStatement
+gotoStatement
+mergeStatement
+performStatement (procedure)
+sortStatement
+useStatement (for debugging)
+xmlParseStatement</t>
+  </si>
+  <si>
+    <t>Program (not nested)</t>
+  </si>
+  <si>
+    <t>EntryStatement</t>
+  </si>
+  <si>
+    <t>Tuple&lt;Program,EntryStatement&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,8 +2063,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +2098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +2120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1636,6 +2173,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,28 +2511,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="600" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="88.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="47.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="88.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="47.875" style="4" customWidth="1"/>
     <col min="13" max="13" width="54" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="14" max="16384" width="11.375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2745,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2774,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>247</v>
       </c>
@@ -2280,7 +2838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>247</v>
       </c>
@@ -2612,28 +3170,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="131.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="131.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.375" style="4" customWidth="1"/>
     <col min="13" max="13" width="60" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="14" max="16384" width="11.375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2884,7 +3442,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2910,7 +3468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2985,7 +3543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +3569,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3866,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>247</v>
       </c>
@@ -3332,7 +3890,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>247</v>
       </c>
@@ -3404,7 +3962,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>326</v>
       </c>
@@ -3485,7 +4043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>326</v>
       </c>
@@ -4031,7 +4589,7 @@
       </c>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>328</v>
       </c>
@@ -4054,7 +4612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>328</v>
       </c>
@@ -4368,7 +4926,7 @@
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:12" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>327</v>
       </c>
@@ -4416,7 +4974,7 @@
       </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>327</v>
       </c>
@@ -4812,10 +5370,769 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="16" customWidth="1"/>
+    <col min="3" max="5" width="26.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30" style="16" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="16" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
